--- a/Mephar/productData.xlsx
+++ b/Mephar/productData.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1AA10E-48EA-4383-A82B-80F5901DBD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B61FB9-24E5-4F24-BEB2-BF473306F025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh sách sản phẩm" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="212">
   <si>
     <t>Loại sản phẩm</t>
   </si>
@@ -560,137 +573,113 @@
     <t>HH000000032</t>
   </si>
   <si>
-    <t>HH000000031</t>
-  </si>
-  <si>
-    <t>HH000000030</t>
-  </si>
-  <si>
-    <t>HH000000029</t>
-  </si>
-  <si>
     <t>Thuốc táo bón</t>
   </si>
   <si>
-    <t>HH000000028</t>
-  </si>
-  <si>
     <t>Thuốc dạ dày</t>
   </si>
   <si>
-    <t>HH000000027</t>
-  </si>
-  <si>
-    <t>HH000000007</t>
-  </si>
-  <si>
-    <t>Thuốc đau đầu</t>
-  </si>
-  <si>
-    <t>HH000000005</t>
-  </si>
-  <si>
-    <t>Thuốc giảm đau</t>
-  </si>
-  <si>
-    <t>NHOM1</t>
-  </si>
-  <si>
     <t>TT2</t>
   </si>
   <si>
+    <t>hộp</t>
+  </si>
+  <si>
+    <t>Khẩu trang</t>
+  </si>
+  <si>
+    <t>Thuốc cảm</t>
+  </si>
+  <si>
+    <t>N002</t>
+  </si>
+  <si>
+    <t>Fresenius Kabi Norge AS</t>
+  </si>
+  <si>
+    <t>Bồ Đào Nha</t>
+  </si>
+  <si>
+    <t>TT1</t>
+  </si>
+  <si>
     <t>Hộp</t>
   </si>
   <si>
-    <t>HH000000006</t>
-  </si>
-  <si>
-    <t>HH000000004</t>
-  </si>
-  <si>
-    <t>Thuốc sổ mũi</t>
+    <t>DQG00047305</t>
   </si>
   <si>
     <t>cảm cúm</t>
   </si>
   <si>
-    <t>TH000000005</t>
-  </si>
-  <si>
-    <t>DQG00047305</t>
-  </si>
-  <si>
-    <t>- chymotrypsin</t>
-  </si>
-  <si>
-    <t>TT1</t>
-  </si>
-  <si>
-    <t>uống</t>
-  </si>
-  <si>
     <t>Hộp 3 vỉ x 10 viên nén</t>
   </si>
   <si>
     <t>Công ty cổ phần dược phẩm Bidiphar 1</t>
   </si>
   <si>
-    <t>HH000000003</t>
-  </si>
-  <si>
-    <t>Thuoc ha sot</t>
-  </si>
-  <si>
-    <t>HH000000001</t>
-  </si>
-  <si>
-    <t>Thuốc cảm cúm</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Yava Therapeutics Pvt., Ltd - India</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>hộp</t>
-  </si>
-  <si>
-    <t>HH000000002</t>
-  </si>
-  <si>
-    <t>TH000000001</t>
-  </si>
-  <si>
-    <t>DQG00005792</t>
-  </si>
-  <si>
-    <t>- Kiisin</t>
-  </si>
-  <si>
-    <t>Hộp 5 lọ bột đông khô pha tiêm kèm 5 ống dung môi 2ml</t>
-  </si>
-  <si>
-    <t>Công ty cổ phần Pymepharco</t>
-  </si>
-  <si>
-    <t>TH000000002</t>
-  </si>
-  <si>
-    <t>Khẩu trang</t>
+    <t>Thuốc ngủ</t>
+  </si>
+  <si>
+    <t>Advotinib 100mg</t>
+  </si>
+  <si>
+    <t>DD1</t>
+  </si>
+  <si>
+    <t>DQG00047306</t>
+  </si>
+  <si>
+    <t>Công ty cổ phần dược phẩm Bidiphar 2</t>
+  </si>
+  <si>
+    <t>DQG00047307</t>
+  </si>
+  <si>
+    <t>Công ty cổ phần dược phẩm Bidiphar 3</t>
+  </si>
+  <si>
+    <t>DQG00047308</t>
+  </si>
+  <si>
+    <t>Công ty cổ phần dược phẩm Bidiphar 4</t>
+  </si>
+  <si>
+    <t>DQG00047309</t>
+  </si>
+  <si>
+    <t>Công ty cổ phần dược phẩm Bidiphar 5</t>
+  </si>
+  <si>
+    <t>DQG00047310</t>
+  </si>
+  <si>
+    <t>Công ty cổ phần dược phẩm Bidiphar 6</t>
+  </si>
+  <si>
+    <t>DQG00047311</t>
+  </si>
+  <si>
+    <t>Công ty cổ phần dược phẩm Bidiphar 7</t>
+  </si>
+  <si>
+    <t>TH000000019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1057,1508 +1046,1703 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FU15"/>
+  <dimension ref="A1:FV17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="12" width="15" customWidth="1"/>
-    <col min="13" max="14" width="30" customWidth="1"/>
-    <col min="15" max="24" width="15" customWidth="1"/>
-    <col min="25" max="26" width="45" customWidth="1"/>
-    <col min="27" max="177" width="15" customWidth="1"/>
+    <col min="2" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="30" customWidth="1"/>
+    <col min="15" max="15" width="36.28515625" customWidth="1"/>
+    <col min="16" max="25" width="15" customWidth="1"/>
+    <col min="26" max="27" width="45" customWidth="1"/>
+    <col min="28" max="178" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:177" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:178" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CU1" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CV1" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CW1" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CX1" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CY1" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="CZ1" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DA1" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DB1" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DC1" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DD1" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DE1" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DF1" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DG1" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DH1" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DI1" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DJ1" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DK1" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DL1" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DM1" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DN1" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DO1" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DP1" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DQ1" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DR1" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DS1" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DT1" t="s">
         <v>122</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DU1" t="s">
         <v>123</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DV1" t="s">
         <v>124</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DW1" t="s">
         <v>125</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DX1" t="s">
         <v>126</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="DY1" t="s">
         <v>127</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="DZ1" t="s">
         <v>128</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="EA1" t="s">
         <v>129</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EB1" t="s">
         <v>130</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EC1" t="s">
         <v>131</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="ED1" t="s">
         <v>132</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="EE1" t="s">
         <v>133</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="EF1" t="s">
         <v>134</v>
       </c>
-      <c r="EF1" t="s">
+      <c r="EG1" t="s">
         <v>135</v>
       </c>
-      <c r="EG1" t="s">
+      <c r="EH1" t="s">
         <v>136</v>
       </c>
-      <c r="EH1" t="s">
+      <c r="EI1" t="s">
         <v>137</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EJ1" t="s">
         <v>138</v>
       </c>
-      <c r="EJ1" t="s">
+      <c r="EK1" t="s">
         <v>139</v>
       </c>
-      <c r="EK1" t="s">
+      <c r="EL1" t="s">
         <v>140</v>
       </c>
-      <c r="EL1" t="s">
+      <c r="EM1" t="s">
         <v>141</v>
       </c>
-      <c r="EM1" t="s">
+      <c r="EN1" t="s">
         <v>142</v>
       </c>
-      <c r="EN1" t="s">
+      <c r="EO1" t="s">
         <v>143</v>
       </c>
-      <c r="EO1" t="s">
+      <c r="EP1" t="s">
         <v>144</v>
       </c>
-      <c r="EP1" t="s">
+      <c r="EQ1" t="s">
         <v>145</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="ER1" t="s">
         <v>146</v>
       </c>
-      <c r="ER1" t="s">
+      <c r="ES1" t="s">
         <v>147</v>
       </c>
-      <c r="ES1" t="s">
+      <c r="ET1" t="s">
         <v>148</v>
       </c>
-      <c r="ET1" t="s">
+      <c r="EU1" t="s">
         <v>149</v>
       </c>
-      <c r="EU1" t="s">
+      <c r="EV1" t="s">
         <v>150</v>
       </c>
-      <c r="EV1" t="s">
+      <c r="EW1" t="s">
         <v>151</v>
       </c>
-      <c r="EW1" t="s">
+      <c r="EX1" t="s">
         <v>152</v>
       </c>
-      <c r="EX1" t="s">
+      <c r="EY1" t="s">
         <v>153</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="EZ1" t="s">
         <v>154</v>
       </c>
-      <c r="EZ1" t="s">
+      <c r="FA1" t="s">
         <v>155</v>
       </c>
-      <c r="FA1" t="s">
+      <c r="FB1" t="s">
         <v>156</v>
       </c>
-      <c r="FB1" t="s">
+      <c r="FC1" t="s">
         <v>157</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="FD1" t="s">
         <v>158</v>
       </c>
-      <c r="FD1" t="s">
+      <c r="FE1" t="s">
         <v>159</v>
       </c>
-      <c r="FE1" t="s">
+      <c r="FF1" t="s">
         <v>160</v>
       </c>
-      <c r="FF1" t="s">
+      <c r="FG1" t="s">
         <v>161</v>
       </c>
-      <c r="FG1" t="s">
+      <c r="FH1" t="s">
         <v>162</v>
       </c>
-      <c r="FH1" t="s">
+      <c r="FI1" t="s">
         <v>163</v>
       </c>
-      <c r="FI1" t="s">
+      <c r="FJ1" t="s">
         <v>164</v>
       </c>
-      <c r="FJ1" t="s">
+      <c r="FK1" t="s">
         <v>165</v>
       </c>
-      <c r="FK1" t="s">
+      <c r="FL1" t="s">
         <v>166</v>
       </c>
-      <c r="FL1" t="s">
+      <c r="FM1" t="s">
         <v>167</v>
       </c>
-      <c r="FM1" t="s">
+      <c r="FN1" t="s">
         <v>168</v>
       </c>
-      <c r="FN1" t="s">
+      <c r="FO1" t="s">
         <v>169</v>
       </c>
-      <c r="FO1" t="s">
+      <c r="FP1" t="s">
         <v>170</v>
       </c>
-      <c r="FP1" t="s">
+      <c r="FQ1" t="s">
         <v>171</v>
       </c>
-      <c r="FQ1" t="s">
+      <c r="FR1" t="s">
         <v>172</v>
       </c>
-      <c r="FR1" t="s">
+      <c r="FS1" t="s">
         <v>173</v>
       </c>
-      <c r="FS1" t="s">
+      <c r="FT1" t="s">
         <v>174</v>
       </c>
-      <c r="FT1" t="s">
+      <c r="FU1" t="s">
         <v>175</v>
       </c>
-      <c r="FU1" t="s">
+      <c r="FV1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:177" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
-        <v>177</v>
+    <row r="2" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
-      </c>
-      <c r="K2">
+        <v>185</v>
+      </c>
+      <c r="G2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L2">
         <v>25000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1500</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
       <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
         <v>180</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
         <v>179</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
         <v>999999999</v>
       </c>
-      <c r="Y2" t="s">
-        <v>177</v>
-      </c>
       <c r="Z2" t="s">
         <v>177</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:177" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A3">
+        <f>A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>180</v>
       </c>
       <c r="C3" t="s">
         <v>180</v>
       </c>
       <c r="D3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" t="s">
         <v>178</v>
       </c>
-      <c r="F3" t="s">
-        <v>177</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
+      <c r="G3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I3" t="s">
+        <v>183</v>
       </c>
       <c r="K3">
+        <v>20000</v>
+      </c>
+      <c r="L3">
         <v>25000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>10</v>
       </c>
-      <c r="P3">
+      <c r="N3" t="s">
+        <v>191</v>
+      </c>
+      <c r="O3" t="s">
+        <v>188</v>
+      </c>
+      <c r="P3" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q3">
         <v>1500</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
       <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>180</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3" t="s">
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
         <v>179</v>
       </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
         <v>999999999</v>
       </c>
-      <c r="Y3" t="s">
-        <v>177</v>
-      </c>
       <c r="Z3" t="s">
         <v>177</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:177" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A4">
+        <f t="shared" ref="A4:A17" si="0">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I4" t="s">
+        <v>183</v>
+      </c>
+      <c r="K4">
+        <v>20000</v>
+      </c>
+      <c r="L4">
+        <v>25000</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>184</v>
+      </c>
+      <c r="O4" t="s">
+        <v>188</v>
+      </c>
+      <c r="P4" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q4">
+        <v>1500</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>180</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4" t="s">
+        <v>179</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>999999999</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I5" t="s">
+        <v>183</v>
+      </c>
+      <c r="K5">
+        <v>20000</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O5" t="s">
+        <v>188</v>
+      </c>
+      <c r="P5" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q5">
+        <v>1500</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>180</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
+        <v>179</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>999999999</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" t="s">
         <v>181</v>
       </c>
-      <c r="C4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F4" t="s">
-        <v>177</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
+      <c r="G6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I6" t="s">
+        <v>183</v>
+      </c>
+      <c r="K6">
+        <v>20000</v>
+      </c>
+      <c r="L6">
         <v>25000</v>
       </c>
-      <c r="L4">
+      <c r="M6">
         <v>10</v>
       </c>
-      <c r="P4">
+      <c r="N6" t="s">
+        <v>184</v>
+      </c>
+      <c r="O6" t="s">
+        <v>188</v>
+      </c>
+      <c r="P6" t="s">
+        <v>189</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>180</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6" t="s">
+        <v>179</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>999999999</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K7">
+        <v>20000</v>
+      </c>
+      <c r="L7">
+        <v>25000</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>184</v>
+      </c>
+      <c r="O7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q7">
         <v>1500</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <v>180</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>999999999</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H8" t="s">
+        <v>187</v>
+      </c>
+      <c r="I8" t="s">
+        <v>183</v>
+      </c>
+      <c r="K8">
+        <v>20000</v>
+      </c>
+      <c r="L8">
+        <v>25000</v>
+      </c>
+      <c r="M8">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>184</v>
+      </c>
+      <c r="O8" t="s">
+        <v>188</v>
+      </c>
+      <c r="P8" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q8">
+        <v>1500</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>180</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8" t="s">
         <v>179</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
         <v>999999999</v>
       </c>
-      <c r="Y4" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA4">
+      <c r="Z8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB8">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:177" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="9" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" t="s">
         <v>182</v>
       </c>
-      <c r="C5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F5" t="s">
-        <v>177</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
+      <c r="G9" t="s">
+        <v>186</v>
+      </c>
+      <c r="H9" t="s">
+        <v>187</v>
+      </c>
+      <c r="I9" t="s">
+        <v>183</v>
+      </c>
+      <c r="K9">
+        <v>20000</v>
+      </c>
+      <c r="L9">
         <v>25000</v>
       </c>
-      <c r="L5">
+      <c r="M9">
         <v>10</v>
       </c>
-      <c r="P5">
+      <c r="N9" t="s">
+        <v>184</v>
+      </c>
+      <c r="O9" t="s">
+        <v>188</v>
+      </c>
+      <c r="P9" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q9">
         <v>1500</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
         <v>180</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9" t="s">
         <v>179</v>
       </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
         <v>999999999</v>
       </c>
-      <c r="Y5" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA5">
+      <c r="Z9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB9">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:177" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" t="s">
-        <v>184</v>
-      </c>
-      <c r="F6" t="s">
-        <v>177</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
+    <row r="10" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>197</v>
+      </c>
+      <c r="J10" t="s">
+        <v>198</v>
+      </c>
+      <c r="L10">
         <v>25000</v>
       </c>
-      <c r="L6">
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>180</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10" t="s">
+        <v>179</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>999999999</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:178" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G11" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" t="s">
+        <v>193</v>
+      </c>
+      <c r="I11" t="s">
+        <v>190</v>
+      </c>
+      <c r="J11" t="s">
+        <v>198</v>
+      </c>
+      <c r="K11">
+        <v>20000</v>
+      </c>
+      <c r="L11">
+        <v>25000</v>
+      </c>
+      <c r="M11">
         <v>10</v>
       </c>
-      <c r="P6">
-        <v>1500</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
+      <c r="N11" t="s">
+        <v>194</v>
+      </c>
+      <c r="O11" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
         <v>180</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11" t="s">
         <v>179</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
         <v>999999999</v>
       </c>
-      <c r="Y6" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA6">
+      <c r="Z11" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB11">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:177" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F7" t="s">
-        <v>177</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
+    <row r="12" spans="1:178" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>199</v>
+      </c>
+      <c r="G12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H12" t="s">
+        <v>193</v>
+      </c>
+      <c r="I12" t="s">
+        <v>190</v>
+      </c>
+      <c r="J12" t="s">
+        <v>198</v>
+      </c>
+      <c r="K12">
+        <v>20000</v>
+      </c>
+      <c r="L12">
         <v>25000</v>
       </c>
-      <c r="L7">
+      <c r="M12">
         <v>10</v>
       </c>
-      <c r="P7">
-        <v>1500</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
+      <c r="N12" t="s">
+        <v>194</v>
+      </c>
+      <c r="O12" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
         <v>180</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12" t="s">
         <v>179</v>
       </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
         <v>999999999</v>
       </c>
-      <c r="Y7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA7">
+      <c r="Z12" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB12">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:177" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E8" t="s">
-        <v>186</v>
-      </c>
-      <c r="F8" t="s">
-        <v>177</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
+    <row r="13" spans="1:178" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G13" t="s">
+        <v>196</v>
+      </c>
+      <c r="H13" t="s">
+        <v>193</v>
+      </c>
+      <c r="I13" t="s">
+        <v>190</v>
+      </c>
+      <c r="K13">
+        <v>20000</v>
+      </c>
+      <c r="L13">
         <v>25000</v>
       </c>
-      <c r="L8">
+      <c r="M13">
         <v>10</v>
       </c>
-      <c r="P8">
-        <v>1500</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
+      <c r="N13" t="s">
+        <v>194</v>
+      </c>
+      <c r="O13" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
         <v>180</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8" t="s">
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13" t="s">
         <v>179</v>
       </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
         <v>999999999</v>
       </c>
-      <c r="Y8" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA8">
+      <c r="Z13" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB13">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:177" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E9" t="s">
-        <v>189</v>
-      </c>
-      <c r="F9" t="s">
-        <v>177</v>
-      </c>
-      <c r="J9">
-        <v>20000</v>
-      </c>
-      <c r="K9">
-        <v>25000</v>
-      </c>
-      <c r="L9">
-        <v>10</v>
-      </c>
-      <c r="P9">
-        <v>2500</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>180</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9" t="s">
-        <v>179</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>999999999</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:177" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="14" spans="1:178" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" t="s">
+        <v>197</v>
+      </c>
+      <c r="G14" t="s">
+        <v>196</v>
+      </c>
+      <c r="H14" t="s">
+        <v>193</v>
+      </c>
+      <c r="I14" t="s">
         <v>190</v>
       </c>
-      <c r="C10" t="s">
-        <v>190</v>
-      </c>
-      <c r="D10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E10" t="s">
-        <v>191</v>
-      </c>
-      <c r="F10" t="s">
-        <v>177</v>
-      </c>
-      <c r="G10" t="s">
-        <v>192</v>
-      </c>
-      <c r="H10" t="s">
-        <v>193</v>
-      </c>
-      <c r="J10">
-        <v>20000</v>
-      </c>
-      <c r="K10">
-        <v>25000</v>
-      </c>
-      <c r="L10">
-        <v>10</v>
-      </c>
-      <c r="P10">
-        <v>1500</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>180</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10" t="s">
-        <v>179</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>999999999</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA10">
-        <v>1</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC10">
-        <v>2</v>
-      </c>
-      <c r="AD10">
-        <v>50000</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:177" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D11" t="s">
-        <v>177</v>
-      </c>
-      <c r="E11" t="s">
-        <v>197</v>
-      </c>
-      <c r="F11" t="s">
-        <v>177</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="J14" t="s">
         <v>198</v>
-      </c>
-      <c r="J11">
-        <v>20000</v>
-      </c>
-      <c r="K11">
-        <v>25000</v>
-      </c>
-      <c r="L11">
-        <v>10</v>
-      </c>
-      <c r="P11">
-        <v>2500</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>180</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11" t="s">
-        <v>179</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>999999999</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:177" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C12" t="s">
-        <v>199</v>
-      </c>
-      <c r="D12" t="s">
-        <v>200</v>
-      </c>
-      <c r="E12" t="s">
-        <v>201</v>
-      </c>
-      <c r="F12" t="s">
-        <v>177</v>
-      </c>
-      <c r="G12" t="s">
-        <v>198</v>
-      </c>
-      <c r="H12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J12">
-        <v>20000</v>
-      </c>
-      <c r="K12">
-        <v>25000</v>
-      </c>
-      <c r="L12">
-        <v>10</v>
-      </c>
-      <c r="M12" t="s">
-        <v>204</v>
-      </c>
-      <c r="N12" t="s">
-        <v>205</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
-      <c r="S12">
-        <v>180</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12" t="s">
-        <v>179</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>999999999</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:177" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C13" t="s">
-        <v>206</v>
-      </c>
-      <c r="D13" t="s">
-        <v>177</v>
-      </c>
-      <c r="E13" t="s">
-        <v>207</v>
-      </c>
-      <c r="F13" t="s">
-        <v>177</v>
-      </c>
-      <c r="G13" t="s">
-        <v>198</v>
-      </c>
-      <c r="J13">
-        <v>100000</v>
-      </c>
-      <c r="K13">
-        <v>300000</v>
-      </c>
-      <c r="L13">
-        <v>10</v>
-      </c>
-      <c r="P13">
-        <v>2188</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>180</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13" t="s">
-        <v>179</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:177" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>208</v>
-      </c>
-      <c r="C14" t="s">
-        <v>208</v>
-      </c>
-      <c r="D14" t="s">
-        <v>177</v>
-      </c>
-      <c r="E14" t="s">
-        <v>209</v>
-      </c>
-      <c r="F14" t="s">
-        <v>177</v>
-      </c>
-      <c r="G14" t="s">
-        <v>198</v>
-      </c>
-      <c r="J14">
-        <v>15000</v>
       </c>
       <c r="K14">
         <v>20000</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14">
+        <v>10</v>
+      </c>
+      <c r="N14" t="s">
+        <v>194</v>
+      </c>
+      <c r="O14" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>180</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14" t="s">
+        <v>179</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>999999999</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:178" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>205</v>
+      </c>
+      <c r="F15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G15" t="s">
+        <v>196</v>
+      </c>
+      <c r="H15" t="s">
+        <v>193</v>
+      </c>
+      <c r="I15" t="s">
+        <v>190</v>
+      </c>
+      <c r="J15" t="s">
+        <v>198</v>
+      </c>
+      <c r="K15">
+        <v>20000</v>
+      </c>
+      <c r="L15">
+        <v>25000</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15" t="s">
+        <v>194</v>
+      </c>
+      <c r="O15" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>180</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>999999999</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:178" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>211</v>
+      </c>
+      <c r="E16" t="s">
+        <v>207</v>
+      </c>
+      <c r="F16" t="s">
+        <v>197</v>
+      </c>
+      <c r="G16" t="s">
+        <v>196</v>
+      </c>
+      <c r="H16" t="s">
+        <v>193</v>
+      </c>
+      <c r="I16" t="s">
+        <v>183</v>
+      </c>
+      <c r="J16" t="s">
+        <v>198</v>
+      </c>
+      <c r="K16">
+        <v>20000</v>
+      </c>
+      <c r="L16">
+        <v>25000</v>
+      </c>
+      <c r="M16">
+        <v>10</v>
+      </c>
+      <c r="N16" t="s">
+        <v>194</v>
+      </c>
+      <c r="O16" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>180</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16" t="s">
+        <v>179</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>999999999</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E17" t="s">
+        <v>209</v>
+      </c>
+      <c r="F17" t="s">
+        <v>197</v>
+      </c>
+      <c r="G17" t="s">
+        <v>196</v>
+      </c>
+      <c r="H17" t="s">
+        <v>193</v>
+      </c>
+      <c r="I17" t="s">
+        <v>183</v>
+      </c>
+      <c r="J17" t="s">
+        <v>198</v>
+      </c>
+      <c r="K17">
+        <v>20000</v>
+      </c>
+      <c r="L17">
+        <v>25000</v>
+      </c>
+      <c r="M17">
+        <v>10</v>
+      </c>
+      <c r="N17" t="s">
+        <v>194</v>
+      </c>
+      <c r="O17" t="s">
         <v>210</v>
       </c>
-      <c r="M14" t="s">
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>180</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17" t="s">
         <v>179</v>
       </c>
-      <c r="N14" t="s">
-        <v>211</v>
-      </c>
-      <c r="O14" t="s">
-        <v>212</v>
-      </c>
-      <c r="P14">
-        <v>3977</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>180</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14" t="s">
-        <v>179</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
         <v>999999999</v>
       </c>
-      <c r="Y14" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA14">
-        <v>1</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>213</v>
-      </c>
-      <c r="AC14">
-        <v>2</v>
-      </c>
-      <c r="AD14">
-        <v>40000</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>214</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:177" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>215</v>
-      </c>
-      <c r="C15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D15" t="s">
-        <v>216</v>
-      </c>
-      <c r="E15" t="s">
-        <v>217</v>
-      </c>
-      <c r="F15" t="s">
-        <v>177</v>
-      </c>
-      <c r="G15" t="s">
-        <v>198</v>
-      </c>
-      <c r="I15" t="s">
-        <v>203</v>
-      </c>
-      <c r="J15">
-        <v>25000</v>
-      </c>
-      <c r="K15">
-        <v>30000</v>
-      </c>
-      <c r="L15" t="s">
-        <v>210</v>
-      </c>
-      <c r="M15" t="s">
-        <v>218</v>
-      </c>
-      <c r="N15" t="s">
-        <v>219</v>
-      </c>
-      <c r="P15">
-        <v>2998</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-      <c r="S15">
-        <v>180</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15" t="s">
-        <v>179</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>999999999</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA15">
-        <v>1</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>213</v>
-      </c>
-      <c r="AC15">
-        <v>2</v>
-      </c>
-      <c r="AD15">
-        <v>60000</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>220</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
+      <c r="Z17" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>

--- a/Mephar/productData.xlsx
+++ b/Mephar/productData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B61FB9-24E5-4F24-BEB2-BF473306F025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8F90B1-7EC0-4FF5-9928-26F8B7E5DA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="214">
   <si>
     <t>Loại sản phẩm</t>
   </si>
@@ -664,6 +664,12 @@
   </si>
   <si>
     <t>TH000000019</t>
+  </si>
+  <si>
+    <t>HH000000033</t>
+  </si>
+  <si>
+    <t>TH000000001</t>
   </si>
 </sst>
 </file>
@@ -1046,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FV17"/>
+  <dimension ref="A1:FV18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1661,10 +1667,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="E3" t="s">
         <v>177</v>
@@ -2739,6 +2745,17 @@
       </c>
       <c r="AB17">
         <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
